--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>240.5631756878809</v>
+        <v>238.5013841855001</v>
       </c>
       <c r="R2">
-        <v>2165.068581190928</v>
+        <v>2146.512457669501</v>
       </c>
       <c r="S2">
-        <v>0.04963356409996448</v>
+        <v>0.0607406836076874</v>
       </c>
       <c r="T2">
-        <v>0.04963356409996448</v>
+        <v>0.0607406836076874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>18.63349856626378</v>
+        <v>20.97048861605745</v>
       </c>
       <c r="R3">
-        <v>167.701487096374</v>
+        <v>188.734397544517</v>
       </c>
       <c r="S3">
-        <v>0.003844507551293693</v>
+        <v>0.005340689398833248</v>
       </c>
       <c r="T3">
-        <v>0.003844507551293693</v>
+        <v>0.005340689398833248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>74.03476173453268</v>
+        <v>80.96403497813934</v>
       </c>
       <c r="R4">
-        <v>666.3128556107941</v>
+        <v>728.6763148032541</v>
       </c>
       <c r="S4">
-        <v>0.01527502736721498</v>
+        <v>0.02061963224659507</v>
       </c>
       <c r="T4">
-        <v>0.01527502736721498</v>
+        <v>0.02061963224659507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>0.5602819817404445</v>
+        <v>3.731836159284555</v>
       </c>
       <c r="R5">
-        <v>5.042537835664</v>
+        <v>33.586525433561</v>
       </c>
       <c r="S5">
-        <v>0.0001155987053099517</v>
+        <v>0.0009504107500295647</v>
       </c>
       <c r="T5">
-        <v>0.0001155987053099517</v>
+        <v>0.000950410750029565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>1556.740087167706</v>
+        <v>1371.398654835536</v>
       </c>
       <c r="R6">
-        <v>14010.66078450935</v>
+        <v>12342.58789351982</v>
       </c>
       <c r="S6">
-        <v>0.3211903013937273</v>
+        <v>0.3492629280867615</v>
       </c>
       <c r="T6">
-        <v>0.3211903013937273</v>
+        <v>0.3492629280867615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
         <v>120.5816896095546</v>
@@ -883,10 +883,10 @@
         <v>1085.235206485991</v>
       </c>
       <c r="S7">
-        <v>0.02487869975695269</v>
+        <v>0.03070931551389967</v>
       </c>
       <c r="T7">
-        <v>0.02487869975695269</v>
+        <v>0.03070931551389967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>479.0961089805024</v>
+        <v>465.5485293650047</v>
       </c>
       <c r="R8">
-        <v>4311.864980824522</v>
+        <v>4189.936764285042</v>
       </c>
       <c r="S8">
-        <v>0.09884824378100064</v>
+        <v>0.1185642423952988</v>
       </c>
       <c r="T8">
-        <v>0.09884824378100066</v>
+        <v>0.1185642423952988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>3.62571461155289</v>
+        <v>21.45830350791145</v>
       </c>
       <c r="R9">
-        <v>32.631431503976</v>
+        <v>193.124731571203</v>
       </c>
       <c r="S9">
-        <v>0.0007480660249271645</v>
+        <v>0.005464924359172833</v>
       </c>
       <c r="T9">
-        <v>0.0007480660249271646</v>
+        <v>0.005464924359172835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>575.3924496789982</v>
+        <v>418.8598427151058</v>
       </c>
       <c r="R10">
-        <v>5178.532047110984</v>
+        <v>3769.738584435952</v>
       </c>
       <c r="S10">
-        <v>0.1187163328390368</v>
+        <v>0.1066737338620054</v>
       </c>
       <c r="T10">
-        <v>0.1187163328390368</v>
+        <v>0.1066737338620055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>44.56864337392744</v>
+        <v>36.82869847224455</v>
       </c>
       <c r="R11">
-        <v>401.1177903653469</v>
+        <v>331.458286250201</v>
       </c>
       <c r="S11">
-        <v>0.00919550804657808</v>
+        <v>0.00937940183963732</v>
       </c>
       <c r="T11">
-        <v>0.009195508046578078</v>
+        <v>0.009379401839637322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>177.0804812250397</v>
+        <v>142.1902982757846</v>
       </c>
       <c r="R12">
-        <v>1593.724331025357</v>
+        <v>1279.712684482062</v>
       </c>
       <c r="S12">
-        <v>0.03653566424122635</v>
+        <v>0.03621251905580015</v>
       </c>
       <c r="T12">
-        <v>0.03653566424122636</v>
+        <v>0.03621251905580016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>1.340113760399111</v>
+        <v>6.553908741681443</v>
       </c>
       <c r="R13">
-        <v>12.061023843592</v>
+        <v>58.98517867513299</v>
       </c>
       <c r="S13">
-        <v>0.0002764954446490731</v>
+        <v>0.001669126150490205</v>
       </c>
       <c r="T13">
-        <v>0.0002764954446490731</v>
+        <v>0.001669126150490206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N14">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O14">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P14">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q14">
-        <v>1120.374196420653</v>
+        <v>692.2615810197102</v>
       </c>
       <c r="R14">
-        <v>10083.36776778588</v>
+        <v>6230.354229177391</v>
       </c>
       <c r="S14">
-        <v>0.2311582574306369</v>
+        <v>0.1763027154331797</v>
       </c>
       <c r="T14">
-        <v>0.2311582574306369</v>
+        <v>0.1763027154331797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N15">
         <v>2.969483</v>
       </c>
       <c r="O15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q15">
-        <v>86.78174006885168</v>
+        <v>60.86783795274233</v>
       </c>
       <c r="R15">
-        <v>781.035660619665</v>
+        <v>547.810541574681</v>
       </c>
       <c r="S15">
-        <v>0.01790501412403328</v>
+        <v>0.01550160431813662</v>
       </c>
       <c r="T15">
-        <v>0.01790501412403327</v>
+        <v>0.01550160431813662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N16">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O16">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P16">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q16">
-        <v>344.801886025735</v>
+        <v>235.001952089758</v>
       </c>
       <c r="R16">
-        <v>3103.216974231615</v>
+        <v>2115.017568807822</v>
       </c>
       <c r="S16">
-        <v>0.07114034167079349</v>
+        <v>0.05984946069734682</v>
       </c>
       <c r="T16">
-        <v>0.0711403416707935</v>
+        <v>0.05984946069734683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N17">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q17">
-        <v>2.609399685826667</v>
+        <v>10.83183147366366</v>
       </c>
       <c r="R17">
-        <v>23.48459717244</v>
+        <v>97.48648326297298</v>
       </c>
       <c r="S17">
-        <v>0.0005383775226551838</v>
+        <v>0.002758612285125658</v>
       </c>
       <c r="T17">
-        <v>0.0005383775226551838</v>
+        <v>0.002758612285125659</v>
       </c>
     </row>
   </sheetData>
